--- a/modelo relacional proyecto (1).xlsx
+++ b/modelo relacional proyecto (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1-2021\sistema de informacion 1\proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose luis\Desktop\proyectoClinica\proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D8BDFA-655A-4962-B8F5-83EB3AD31987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7CB894-FA25-469E-B06C-D08A2187CB2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="3450" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6015" yWindow="510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -919,7 +919,7 @@
   <dimension ref="B15:R99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
